--- a/biology/Botanique/Triomphe_de_l'Exposition/Triomphe_de_l'Exposition.xlsx
+++ b/biology/Botanique/Triomphe_de_l'Exposition/Triomphe_de_l'Exposition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Triomphe_de_l%27Exposition</t>
+          <t>Triomphe_de_l'Exposition</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Triomphe de l'Exposition' est un cultivar de rosier obtenu en 1855 par le rosiériste français Margottin[1]. Son nom rend hommage à l'exposition universelle de Paris de 1855 où il reçut un premier prix[2].
+'Triomphe de l'Exposition' est un cultivar de rosier obtenu en 1855 par le rosiériste français Margottin. Son nom rend hommage à l'exposition universelle de Paris de 1855 où il reçut un premier prix.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Triomphe_de_l%27Exposition</t>
+          <t>Triomphe_de_l'Exposition</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier hybride remontant présente des fleurs moyennes ou larges (10 à 12 cm) de couleur carmin aux nuances rouge cramoisi. Elles sont pleines, très doubles et plutôt plates (26-40 pétales) en forme de quartiers[3]. La floraison est remontante.
-Le buisson aux rameaux longs, pressés et forts et aux aiguillons peu nombreux[4], s'élève à 150 cm[5]. Son feuillage est vert vif aux folioles oblongues et très dentelées[2]. Sa zone de rusticité est de 6b à 9b ; il s'agit donc d'une variété résistante au froid et rustique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier hybride remontant présente des fleurs moyennes ou larges (10 à 12 cm) de couleur carmin aux nuances rouge cramoisi. Elles sont pleines, très doubles et plutôt plates (26-40 pétales) en forme de quartiers. La floraison est remontante.
+Le buisson aux rameaux longs, pressés et forts et aux aiguillons peu nombreux, s'élève à 150 cm. Son feuillage est vert vif aux folioles oblongues et très dentelées. Sa zone de rusticité est de 6b à 9b ; il s'agit donc d'une variété résistante au froid et rustique.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Triomphe_de_l%27Exposition</t>
+          <t>Triomphe_de_l'Exposition</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par croisement avec 'Eugène Fürst' (Soupert &amp; Notting, 1875), il a donné naissance à 'Capitaine Jouen' (Boutigny, 1900).
 </t>
